--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,339 +467,229 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.450000047683716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.450000047683716</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.450000047683716</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>45600</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.480000019073486</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.370000004768372</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>45607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.429999947547913</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>45614</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.370000004768372</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>45621</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.309999942779541</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>45628</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.279999971389771</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>45635</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.279999971389771</v>
+      </c>
       <c r="E8" t="n">
-        <v>1.470000028610229</v>
+        <v>1.279999971389771</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>45642</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.279999971389771</v>
+      </c>
       <c r="D9" t="n">
-        <v>1.470000028610229</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="E9" t="n">
-        <v>1.409999966621399</v>
+        <v>1.350000023841858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>45649</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.279999971389771</v>
+      </c>
       <c r="C10" t="n">
-        <v>1.470000028610229</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="D10" t="n">
-        <v>1.409999966621399</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="E10" t="n">
-        <v>1.429999947547913</v>
+        <v>1.360000014305115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.470000028610229</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="C11" t="n">
-        <v>1.409999966621399</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="D11" t="n">
-        <v>1.429999947547913</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="E11" t="n">
-        <v>1.490000009536743</v>
+        <v>1.370000004768372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.409999966621399</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="C12" t="n">
-        <v>1.429999947547913</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="D12" t="n">
-        <v>1.490000009536743</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="E12" t="n">
-        <v>1.480000019073486</v>
+        <v>1.340000033378601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.429999947547913</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="C13" t="n">
-        <v>1.490000009536743</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="D13" t="n">
-        <v>1.480000019073486</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.389999985694885</v>
-      </c>
+        <v>1.340000033378601</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.490000009536743</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="C14" t="n">
-        <v>1.480000019073486</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.389999985694885</v>
-      </c>
+        <v>1.340000033378601</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.480000019073486</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.370000004768372</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.429999947547913</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.370000004768372</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.309999942779541</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.279999971389771</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.279999971389771</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.350000023841858</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.360000014305115</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>1.340000033378601</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -812,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,338 +734,198 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.431683540344238</v>
+        <v>1.321340441703796</v>
       </c>
       <c r="C2" t="n">
-        <v>1.484123349189758</v>
+        <v>1.384748697280884</v>
       </c>
       <c r="D2" t="n">
-        <v>1.480677962303162</v>
+        <v>1.425586104393005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45600</v>
       </c>
       <c r="B3" t="n">
-        <v>1.458756923675537</v>
+        <v>1.47377336025238</v>
       </c>
       <c r="C3" t="n">
-        <v>1.470929622650146</v>
+        <v>1.383008122444153</v>
       </c>
       <c r="D3" t="n">
-        <v>1.504139065742493</v>
+        <v>1.403483152389526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45607</v>
       </c>
       <c r="B4" t="n">
-        <v>1.455705404281616</v>
+        <v>1.445741891860962</v>
       </c>
       <c r="C4" t="n">
-        <v>1.465565085411072</v>
+        <v>1.384687542915344</v>
       </c>
       <c r="D4" t="n">
-        <v>1.539339900016785</v>
+        <v>1.369627833366394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45614</v>
       </c>
       <c r="B5" t="n">
-        <v>1.489157795906067</v>
+        <v>1.43678343296051</v>
       </c>
       <c r="C5" t="n">
-        <v>1.4699467420578</v>
+        <v>1.338570594787598</v>
       </c>
       <c r="D5" t="n">
-        <v>1.538027048110962</v>
+        <v>1.359901547431946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45621</v>
       </c>
       <c r="B6" t="n">
-        <v>1.496882796287537</v>
+        <v>1.410905599594116</v>
       </c>
       <c r="C6" t="n">
-        <v>1.488316535949707</v>
+        <v>1.373338580131531</v>
       </c>
       <c r="D6" t="n">
-        <v>1.559797525405884</v>
+        <v>1.396273732185364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45628</v>
       </c>
       <c r="B7" t="n">
-        <v>1.489237070083618</v>
+        <v>1.430856585502625</v>
       </c>
       <c r="C7" t="n">
-        <v>1.484823942184448</v>
+        <v>1.368677735328674</v>
       </c>
       <c r="D7" t="n">
-        <v>1.558915257453918</v>
+        <v>1.409585952758789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45635</v>
       </c>
       <c r="B8" t="n">
-        <v>1.596243858337402</v>
+        <v>1.387839555740356</v>
       </c>
       <c r="C8" t="n">
-        <v>1.516950607299805</v>
+        <v>1.362120270729065</v>
       </c>
       <c r="D8" t="n">
-        <v>1.568739295005798</v>
+        <v>1.404900431632996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45642</v>
       </c>
       <c r="B9" t="n">
-        <v>1.57976758480072</v>
+        <v>1.38206684589386</v>
       </c>
       <c r="C9" t="n">
-        <v>1.518824100494385</v>
+        <v>1.393064260482788</v>
       </c>
       <c r="D9" t="n">
-        <v>1.567824721336365</v>
+        <v>1.407716155052185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45649</v>
       </c>
       <c r="B10" t="n">
-        <v>1.579310655593872</v>
+        <v>1.33783757686615</v>
       </c>
       <c r="C10" t="n">
-        <v>1.524041533470154</v>
+        <v>1.381819367408752</v>
       </c>
       <c r="D10" t="n">
-        <v>1.56410014629364</v>
+        <v>1.409665107727051</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.564617395401001</v>
+        <v>1.321340441703796</v>
       </c>
       <c r="C11" t="n">
-        <v>1.503028035163879</v>
+        <v>1.383506298065186</v>
       </c>
       <c r="D11" t="n">
-        <v>1.509824752807617</v>
+        <v>1.429671883583069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.563018798828125</v>
+        <v>1.381818890571594</v>
       </c>
       <c r="C12" t="n">
-        <v>1.460230708122253</v>
+        <v>1.380522847175598</v>
       </c>
       <c r="D12" t="n">
-        <v>1.481982588768005</v>
+        <v>1.401212453842163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.489949107170105</v>
+        <v>1.38636326789856</v>
       </c>
       <c r="C13" t="n">
-        <v>1.452842235565186</v>
+        <v>1.378901958465576</v>
       </c>
       <c r="D13" t="n">
-        <v>1.483932852745056</v>
+        <v>1.397563576698303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.488795042037964</v>
+        <v>1.386835813522339</v>
       </c>
       <c r="C14" t="n">
-        <v>1.458074450492859</v>
+        <v>1.374187827110291</v>
       </c>
       <c r="D14" t="n">
-        <v>1.488319873809814</v>
+        <v>1.414125561714172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.481966853141785</v>
+        <v>1.380572080612183</v>
       </c>
       <c r="C15" t="n">
-        <v>1.487813830375671</v>
+        <v>1.37816858291626</v>
       </c>
       <c r="D15" t="n">
-        <v>1.468051314353943</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.466689586639404</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.448333144187927</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.472035527229309</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.47165060043335</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.422171831130981</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.471125721931458</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.454963564872742</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.421456098556519</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.453855156898499</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.458623290061951</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.438101530075073</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.39759361743927</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.424694538116455</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.426161289215088</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.399746775627136</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.386177778244019</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.378838539123535</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.405050873756409</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.428776741027832</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.404761552810669</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.421574354171753</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.40395200252533</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.378637194633484</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.468386054039001</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.429553031921387</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.37470006942749</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.413612604141235</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.400908946990967</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.408544540405273</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.422846794128418</v>
+        <v>1.399574637413025</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,212 +484,373 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.480000019073486</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.370000004768372</v>
-      </c>
+        <v>45509</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.429999947547913</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.370000004768372</v>
-      </c>
+        <v>45523</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.309999942779541</v>
-      </c>
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.279999971389771</v>
-      </c>
+        <v>45537</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.279999971389771</v>
-      </c>
+        <v>45544</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.279999971389771</v>
-      </c>
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1.350000023841858</v>
+        <v>1.470000028610229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.279999971389771</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.350000023841858</v>
+        <v>1.470000028610229</v>
       </c>
       <c r="E10" t="n">
-        <v>1.360000014305115</v>
+        <v>1.409999966621399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.279999971389771</v>
-      </c>
+        <v>45565</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.350000023841858</v>
+        <v>1.470000028610229</v>
       </c>
       <c r="D11" t="n">
-        <v>1.360000014305115</v>
+        <v>1.409999966621399</v>
       </c>
       <c r="E11" t="n">
-        <v>1.370000004768372</v>
+        <v>1.429999947547913</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.350000023841858</v>
+        <v>1.470000028610229</v>
       </c>
       <c r="C12" t="n">
-        <v>1.360000014305115</v>
+        <v>1.409999966621399</v>
       </c>
       <c r="D12" t="n">
-        <v>1.370000004768372</v>
+        <v>1.429999947547913</v>
       </c>
       <c r="E12" t="n">
-        <v>1.340000033378601</v>
+        <v>1.490000009536743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.360000014305115</v>
+        <v>1.409999966621399</v>
       </c>
       <c r="C13" t="n">
-        <v>1.370000004768372</v>
+        <v>1.429999947547913</v>
       </c>
       <c r="D13" t="n">
-        <v>1.340000033378601</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>1.490000009536743</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.480000019073486</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.370000004768372</v>
+        <v>1.429999947547913</v>
       </c>
       <c r="C14" t="n">
-        <v>1.340000033378601</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+        <v>1.490000009536743</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.480000019073486</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.389999985694885</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.490000009536743</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.480000019073486</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.389999985694885</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.480000019073486</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.370000004768372</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.429999947547913</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.370000004768372</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.309999942779541</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.279999971389771</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.279999971389771</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.350000023841858</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.360000014305115</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.370000004768372</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.340000033378601</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B28" t="n">
         <v>1.340000033378601</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -702,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,195 +898,377 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.321340441703796</v>
+        <v>1.345313549041748</v>
       </c>
       <c r="C2" t="n">
-        <v>1.384748697280884</v>
+        <v>1.462360501289368</v>
       </c>
       <c r="D2" t="n">
-        <v>1.425586104393005</v>
+        <v>1.465135216712952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.47377336025238</v>
+        <v>1.460031628608704</v>
       </c>
       <c r="C3" t="n">
-        <v>1.383008122444153</v>
+        <v>1.477179884910583</v>
       </c>
       <c r="D3" t="n">
-        <v>1.403483152389526</v>
+        <v>1.52239716053009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.445741891860962</v>
+        <v>1.462192416191101</v>
       </c>
       <c r="C4" t="n">
-        <v>1.384687542915344</v>
+        <v>1.526472210884094</v>
       </c>
       <c r="D4" t="n">
-        <v>1.369627833366394</v>
+        <v>1.547520279884338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.43678343296051</v>
+        <v>1.461067080497742</v>
       </c>
       <c r="C5" t="n">
-        <v>1.338570594787598</v>
+        <v>1.526517629623413</v>
       </c>
       <c r="D5" t="n">
-        <v>1.359901547431946</v>
+        <v>1.546964764595032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.410905599594116</v>
+        <v>1.460045218467712</v>
       </c>
       <c r="C6" t="n">
-        <v>1.373338580131531</v>
+        <v>1.526454329490662</v>
       </c>
       <c r="D6" t="n">
-        <v>1.396273732185364</v>
+        <v>1.589537978172302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.430856585502625</v>
+        <v>1.462699770927429</v>
       </c>
       <c r="C7" t="n">
-        <v>1.368677735328674</v>
+        <v>1.547970056533813</v>
       </c>
       <c r="D7" t="n">
-        <v>1.409585952758789</v>
+        <v>1.590082287788391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.387839555740356</v>
+        <v>1.457805037498474</v>
       </c>
       <c r="C8" t="n">
-        <v>1.362120270729065</v>
+        <v>1.549910426139832</v>
       </c>
       <c r="D8" t="n">
-        <v>1.404900431632996</v>
+        <v>1.590104699134827</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.38206684589386</v>
+        <v>1.550703167915344</v>
       </c>
       <c r="C9" t="n">
-        <v>1.393064260482788</v>
+        <v>1.591666579246521</v>
       </c>
       <c r="D9" t="n">
-        <v>1.407716155052185</v>
+        <v>1.590032696723938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.33783757686615</v>
+        <v>1.55476987361908</v>
       </c>
       <c r="C10" t="n">
-        <v>1.381819367408752</v>
+        <v>1.589754819869995</v>
       </c>
       <c r="D10" t="n">
-        <v>1.409665107727051</v>
+        <v>1.595024228096008</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.321340441703796</v>
+        <v>1.514697670936584</v>
       </c>
       <c r="C11" t="n">
-        <v>1.383506298065186</v>
+        <v>1.582465887069702</v>
       </c>
       <c r="D11" t="n">
-        <v>1.429671883583069</v>
+        <v>1.589336514472961</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.381818890571594</v>
+        <v>1.491089582443237</v>
       </c>
       <c r="C12" t="n">
-        <v>1.380522847175598</v>
+        <v>1.519891619682312</v>
       </c>
       <c r="D12" t="n">
-        <v>1.401212453842163</v>
+        <v>1.418883204460144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.38636326789856</v>
+        <v>1.439299821853638</v>
       </c>
       <c r="C13" t="n">
-        <v>1.378901958465576</v>
+        <v>1.402945518493652</v>
       </c>
       <c r="D13" t="n">
-        <v>1.397563576698303</v>
+        <v>1.421473860740662</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.386835813522339</v>
+        <v>1.419184446334839</v>
       </c>
       <c r="C14" t="n">
-        <v>1.374187827110291</v>
+        <v>1.392247557640076</v>
       </c>
       <c r="D14" t="n">
-        <v>1.414125561714172</v>
+        <v>1.421436190605164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.47926664352417</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.450517416000366</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.42227566242218</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.454052209854126</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.449272632598877</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.423696994781494</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.420031547546387</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.401310324668884</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.345952868461609</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.384873151779175</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.382214546203613</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.367008924484253</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.378192901611328</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.382446646690369</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.37037456035614</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.403839826583862</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.416031002998352</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.393643856048584</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.380911111831665</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.386247754096985</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.379331827163696</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.379516005516052</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.404783010482788</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.375785708427429</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.352631688117981</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.476800560951233</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.459739089012146</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.34908127784729</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.463089227676392</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.474119424819946</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.395786166191101</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.384183168411255</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.336251258850098</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.390435576438904</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.384232640266418</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.35014009475708</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.392430901527405</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.386974215507507</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.380770921707153</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.380572080612183</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.37816858291626</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.399574637413025</v>
+      <c r="B28" t="n">
+        <v>1.373525023460388</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.372210264205933</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.365236520767212</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 201/270G CAT.I PLATEAU 1RG_S+1</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 201/270G CAT.I PLATEAU 1RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 201/270G CAT.I PLATEAU 1RG_S+2</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 201/270G CAT.I PLATEAU 1RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 201/270G CAT.I PLATEAU 1RG_S+3</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 201/270G CAT.I PLATEAU 1RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.279999971389771</v>
       </c>
       <c r="C2" t="n">
-        <v>1.450000047683716</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.450000047683716</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.450000047683716</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,64 +487,104 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="n">
-        <v>1.470000028610229</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -552,12 +592,14 @@
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" t="n">
-        <v>1.470000028610229</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>1.409999966621399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -566,13 +608,13 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.470000028610229</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.409999966621399</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.429999947547913</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -583,13 +625,13 @@
         <v>1.470000028610229</v>
       </c>
       <c r="C12" t="n">
-        <v>1.409999966621399</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.429999947547913</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>1.490000009536743</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -600,13 +642,13 @@
         <v>1.409999966621399</v>
       </c>
       <c r="C13" t="n">
-        <v>1.429999947547913</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>1.490000009536743</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>1.480000019073486</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +659,13 @@
         <v>1.429999947547913</v>
       </c>
       <c r="C14" t="n">
-        <v>1.490000009536743</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1.480000019073486</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1.389999985694885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -634,13 +676,13 @@
         <v>1.490000009536743</v>
       </c>
       <c r="C15" t="n">
-        <v>1.480000019073486</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.389999985694885</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.389999985694885</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +693,13 @@
         <v>1.480000019073486</v>
       </c>
       <c r="C16" t="n">
-        <v>1.389999985694885</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.389999985694885</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -668,13 +710,13 @@
         <v>1.389999985694885</v>
       </c>
       <c r="C17" t="n">
-        <v>1.389999985694885</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1.429999947547913</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -685,13 +727,13 @@
         <v>1.389999985694885</v>
       </c>
       <c r="C18" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1.429999947547913</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>1.370000004768372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -702,13 +744,13 @@
         <v>1.370000004768372</v>
       </c>
       <c r="C19" t="n">
-        <v>1.429999947547913</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1.370000004768372</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.309999942779541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +761,13 @@
         <v>1.429999947547913</v>
       </c>
       <c r="C20" t="n">
-        <v>1.370000004768372</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.309999942779541</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.279999971389771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -736,13 +778,13 @@
         <v>1.370000004768372</v>
       </c>
       <c r="C21" t="n">
-        <v>1.309999942779541</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.279999971389771</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1.279999971389771</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -753,13 +795,13 @@
         <v>1.309999942779541</v>
       </c>
       <c r="C22" t="n">
-        <v>1.279999971389771</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1.279999971389771</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1.350000023841858</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -770,13 +812,13 @@
         <v>1.279999971389771</v>
       </c>
       <c r="C23" t="n">
-        <v>1.279999971389771</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.350000023841858</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -787,13 +829,13 @@
         <v>1.279999971389771</v>
       </c>
       <c r="C24" t="n">
-        <v>1.350000023841858</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1.370000004768372</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -804,13 +846,13 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C25" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1.370000004768372</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1.340000033378601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -821,12 +863,14 @@
         <v>1.360000014305115</v>
       </c>
       <c r="C26" t="n">
-        <v>1.370000004768372</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.340000033378601</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -836,10 +880,14 @@
         <v>1.370000004768372</v>
       </c>
       <c r="C27" t="n">
-        <v>1.340000033378601</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -848,9 +896,15 @@
       <c r="B28" t="n">
         <v>1.340000033378601</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -898,13 +952,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.345313549041748</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.462360501289368</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.465135216712952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -912,13 +966,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.460031628608704</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.477179884910583</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52239716053009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -926,13 +980,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.462192416191101</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.526472210884094</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.547520279884338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -940,13 +994,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.461067080497742</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.526517629623413</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.546964764595032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -954,13 +1008,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.460045218467712</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.526454329490662</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.589537978172302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -968,13 +1022,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.462699770927429</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.547970056533813</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.590082287788391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +1036,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.457805037498474</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.549910426139832</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.590104699134827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -996,13 +1050,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.550703167915344</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.591666579246521</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.590032696723938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1010,13 +1064,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.55476987361908</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.589754819869995</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.595024228096008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1024,13 +1078,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.514697670936584</v>
+        <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.582465887069702</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.589336514472961</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1038,13 +1092,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.491089582443237</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.519891619682312</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.418883204460144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1052,13 +1106,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.439299821853638</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.402945518493652</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.421473860740662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1066,13 +1120,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.419184446334839</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.392247557640076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.421436190605164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1080,13 +1134,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.47926664352417</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.450517416000366</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.42227566242218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1094,13 +1148,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.454052209854126</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.449272632598877</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.423696994781494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1108,13 +1162,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.420031547546387</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.401310324668884</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.345952868461609</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1176,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.384873151779175</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.382214546203613</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.367008924484253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1136,13 +1190,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.378192901611328</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.382446646690369</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.37037456035614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1150,13 +1204,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.403839826583862</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.416031002998352</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.393643856048584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1164,13 +1218,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.380911111831665</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.386247754096985</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.379331827163696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1178,13 +1232,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.379516005516052</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.404783010482788</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.375785708427429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1192,13 +1246,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.352631688117981</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.476800560951233</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.459739089012146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1206,13 +1260,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.34908127784729</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.463089227676392</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.474119424819946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1220,13 +1274,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.395786166191101</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.384183168411255</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.336251258850098</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26">
@@ -1234,13 +1288,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.390435576438904</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.384232640266418</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.35014009475708</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1248,13 +1302,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.392430901527405</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.386974215507507</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.380770921707153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1262,13 +1316,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.373525023460388</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.372210264205933</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.365236520767212</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
